--- a/2.Statistical_Analysis/Clinical_Genomic_data.xlsx
+++ b/2.Statistical_Analysis/Clinical_Genomic_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="307">
   <si>
     <t>ID</t>
   </si>
@@ -857,6 +857,21 @@
     <t>IV</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>A29G</t>
+  </si>
+  <si>
+    <t>C4T,C55T</t>
+  </si>
+  <si>
+    <t>S81L</t>
+  </si>
+  <si>
+    <t>S79F</t>
+  </si>
+  <si>
     <t>88*</t>
   </si>
   <si>
@@ -903,9 +918,6 @@
   </si>
   <si>
     <t>1*</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>glcK_1/1snp</t>
@@ -1426,17 +1438,17 @@
       <c r="BK2" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.0</v>
+      <c r="BL2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>281</v>
       </c>
       <c r="BP2" t="s">
         <v>108</v>
@@ -1463,10 +1475,10 @@
         <v>3.0</v>
       </c>
       <c r="BX2" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ2" t="n">
         <v>286.523714286</v>
@@ -1689,17 +1701,17 @@
       <c r="BK3" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1.0</v>
+      <c r="BL3" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>285</v>
       </c>
       <c r="BP3" t="s">
         <v>95</v>
@@ -1726,10 +1738,10 @@
         <v>2.0</v>
       </c>
       <c r="BX3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ3" t="n">
         <v>184.42</v>
@@ -1952,20 +1964,20 @@
       <c r="BK4" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.0</v>
+      <c r="BL4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>281</v>
       </c>
       <c r="BP4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BQ4" t="s">
         <v>90</v>
@@ -1983,16 +1995,16 @@
         <v>2.0</v>
       </c>
       <c r="BV4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="BW4" t="n">
         <v>3.0</v>
       </c>
       <c r="BX4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="BY4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ4" t="n">
         <v>245.707857143</v>
@@ -2000,8 +2012,8 @@
       <c r="CA4" t="n">
         <v>0.0281690140845</v>
       </c>
-      <c r="CB4" t="e">
-        <v>#N/A</v>
+      <c r="CB4" t="n">
+        <v>23.0</v>
       </c>
       <c r="CC4" t="n">
         <v>1.0</v>
@@ -2215,17 +2227,17 @@
       <c r="BK5" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0.0</v>
+      <c r="BL5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>281</v>
       </c>
       <c r="BP5" t="s">
         <v>108</v>
@@ -2252,10 +2264,10 @@
         <v>3.0</v>
       </c>
       <c r="BX5" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ5" t="n">
         <v>268.866571429</v>
@@ -2478,20 +2490,20 @@
       <c r="BK6" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0.0</v>
+      <c r="BL6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>281</v>
       </c>
       <c r="BP6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BQ6" t="s">
         <v>87</v>
@@ -2500,7 +2512,7 @@
         <v>1.0</v>
       </c>
       <c r="BS6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BT6" t="n">
         <v>2.0</v>
@@ -2515,10 +2527,10 @@
         <v>1.0</v>
       </c>
       <c r="BX6" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ6" t="n">
         <v>207.466</v>
@@ -2741,17 +2753,17 @@
       <c r="BK7" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0.0</v>
+      <c r="BL7" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>281</v>
       </c>
       <c r="BP7" t="s">
         <v>102</v>
@@ -2778,10 +2790,10 @@
         <v>1.0</v>
       </c>
       <c r="BX7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ7" t="n">
         <v>198.385857143</v>
@@ -3004,17 +3016,17 @@
       <c r="BK8" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0.0</v>
+      <c r="BL8" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>281</v>
       </c>
       <c r="BP8" t="s">
         <v>86</v>
@@ -3041,10 +3053,10 @@
         <v>2.0</v>
       </c>
       <c r="BX8" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ8" t="n">
         <v>231.931428571</v>
@@ -3267,17 +3279,17 @@
       <c r="BK9" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>0.0</v>
+      <c r="BL9" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>281</v>
       </c>
       <c r="BP9" t="s">
         <v>108</v>
@@ -3304,10 +3316,10 @@
         <v>3.0</v>
       </c>
       <c r="BX9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ9" t="n">
         <v>233.854</v>
@@ -3530,17 +3542,17 @@
       <c r="BK10" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0.0</v>
+      <c r="BL10" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>281</v>
       </c>
       <c r="BP10" t="s">
         <v>104</v>
@@ -3567,10 +3579,10 @@
         <v>2.0</v>
       </c>
       <c r="BX10" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ10" t="n">
         <v>287.376142857</v>
@@ -3793,17 +3805,17 @@
       <c r="BK11" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>0.0</v>
+      <c r="BL11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>281</v>
       </c>
       <c r="BP11" t="s">
         <v>86</v>
@@ -3830,10 +3842,10 @@
         <v>2.0</v>
       </c>
       <c r="BX11" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ11" t="n">
         <v>289.720428571</v>
@@ -4056,17 +4068,17 @@
       <c r="BK12" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>0.0</v>
+      <c r="BL12" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>281</v>
       </c>
       <c r="BP12" t="s">
         <v>102</v>
@@ -4093,10 +4105,10 @@
         <v>1.0</v>
       </c>
       <c r="BX12" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY12" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ12" t="n">
         <v>298.090857143</v>
@@ -4319,17 +4331,17 @@
       <c r="BK13" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0.0</v>
+      <c r="BL13" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>281</v>
       </c>
       <c r="BP13" t="s">
         <v>102</v>
@@ -4356,10 +4368,10 @@
         <v>1.0</v>
       </c>
       <c r="BX13" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ13" t="n">
         <v>243.205571429</v>
@@ -4582,17 +4594,17 @@
       <c r="BK14" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0.0</v>
+      <c r="BL14" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>281</v>
       </c>
       <c r="BP14" t="s">
         <v>108</v>
@@ -4619,10 +4631,10 @@
         <v>3.0</v>
       </c>
       <c r="BX14" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ14" t="n">
         <v>284.151142857</v>
@@ -4845,17 +4857,17 @@
       <c r="BK15" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0.0</v>
+      <c r="BL15" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>281</v>
       </c>
       <c r="BP15" t="s">
         <v>108</v>
@@ -4882,10 +4894,10 @@
         <v>3.0</v>
       </c>
       <c r="BX15" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY15" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ15" t="n">
         <v>251.719571429</v>
@@ -5108,17 +5120,17 @@
       <c r="BK16" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0.0</v>
+      <c r="BL16" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>281</v>
       </c>
       <c r="BP16" t="s">
         <v>102</v>
@@ -5145,10 +5157,10 @@
         <v>1.0</v>
       </c>
       <c r="BX16" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ16" t="n">
         <v>293.446428571</v>
@@ -5371,17 +5383,17 @@
       <c r="BK17" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0.0</v>
+      <c r="BL17" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>281</v>
       </c>
       <c r="BP17" t="s">
         <v>102</v>
@@ -5408,10 +5420,10 @@
         <v>1.0</v>
       </c>
       <c r="BX17" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY17" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ17" t="n">
         <v>197.738</v>
@@ -5634,17 +5646,17 @@
       <c r="BK18" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>1.0</v>
+      <c r="BL18" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>285</v>
       </c>
       <c r="BP18" t="s">
         <v>102</v>
@@ -5671,10 +5683,10 @@
         <v>1.0</v>
       </c>
       <c r="BX18" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ18" t="n">
         <v>210.326428571</v>
@@ -5897,17 +5909,17 @@
       <c r="BK19" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>0.0</v>
+      <c r="BL19" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>281</v>
       </c>
       <c r="BP19" t="s">
         <v>104</v>
@@ -5934,10 +5946,10 @@
         <v>2.0</v>
       </c>
       <c r="BX19" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ19" t="n">
         <v>143.405285714</v>
@@ -6160,20 +6172,20 @@
       <c r="BK20" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0.0</v>
+      <c r="BL20" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>281</v>
       </c>
       <c r="BP20" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BQ20" t="s">
         <v>87</v>
@@ -6182,7 +6194,7 @@
         <v>1.0</v>
       </c>
       <c r="BS20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BT20" t="n">
         <v>2.0</v>
@@ -6197,10 +6209,10 @@
         <v>1.0</v>
       </c>
       <c r="BX20" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY20" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ20" t="n">
         <v>212.428857143</v>
@@ -6423,20 +6435,20 @@
       <c r="BK21" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>0.0</v>
+      <c r="BL21" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>281</v>
       </c>
       <c r="BP21" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BQ21" t="s">
         <v>87</v>
@@ -6445,7 +6457,7 @@
         <v>1.0</v>
       </c>
       <c r="BS21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BT21" t="n">
         <v>2.0</v>
@@ -6460,10 +6472,10 @@
         <v>1.0</v>
       </c>
       <c r="BX21" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY21" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ21" t="n">
         <v>206.404428571</v>
@@ -6686,17 +6698,17 @@
       <c r="BK22" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>0.0</v>
+      <c r="BL22" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>281</v>
       </c>
       <c r="BP22" t="s">
         <v>95</v>
@@ -6723,10 +6735,10 @@
         <v>2.0</v>
       </c>
       <c r="BX22" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ22" t="n">
         <v>221.547428571</v>
@@ -6949,17 +6961,17 @@
       <c r="BK23" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>0.0</v>
+      <c r="BL23" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>281</v>
       </c>
       <c r="BP23" t="s">
         <v>108</v>
@@ -6986,10 +6998,10 @@
         <v>3.0</v>
       </c>
       <c r="BX23" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY23" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ23" t="n">
         <v>248.909857143</v>
@@ -7212,17 +7224,17 @@
       <c r="BK24" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>0.0</v>
+      <c r="BL24" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>281</v>
       </c>
       <c r="BP24" t="s">
         <v>86</v>
@@ -7249,10 +7261,10 @@
         <v>2.0</v>
       </c>
       <c r="BX24" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY24" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ24" t="n">
         <v>232.449142857</v>
@@ -7475,17 +7487,17 @@
       <c r="BK25" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0.0</v>
+      <c r="BL25" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>281</v>
       </c>
       <c r="BP25" t="s">
         <v>108</v>
@@ -7512,10 +7524,10 @@
         <v>3.0</v>
       </c>
       <c r="BX25" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY25" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ25" t="n">
         <v>261.804428571</v>
@@ -7738,17 +7750,17 @@
       <c r="BK26" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>0.0</v>
+      <c r="BL26" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>281</v>
       </c>
       <c r="BP26" t="s">
         <v>102</v>
@@ -7775,10 +7787,10 @@
         <v>1.0</v>
       </c>
       <c r="BX26" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY26" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ26" t="n">
         <v>245.414142857</v>
@@ -8001,17 +8013,17 @@
       <c r="BK27" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>0.0</v>
+      <c r="BL27" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>281</v>
       </c>
       <c r="BP27" t="s">
         <v>102</v>
@@ -8038,10 +8050,10 @@
         <v>1.0</v>
       </c>
       <c r="BX27" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY27" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ27" t="n">
         <v>258.319857143</v>
@@ -8264,17 +8276,17 @@
       <c r="BK28" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>0.0</v>
+      <c r="BL28" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>281</v>
       </c>
       <c r="BP28" t="s">
         <v>102</v>
@@ -8301,10 +8313,10 @@
         <v>1.0</v>
       </c>
       <c r="BX28" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY28" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ28" t="n">
         <v>226.440142857</v>
@@ -8527,23 +8539,23 @@
       <c r="BK29" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>0.0</v>
+      <c r="BL29" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>281</v>
       </c>
       <c r="BP29" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="BQ29" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="BR29" t="n">
         <v>1.0</v>
@@ -8564,10 +8576,10 @@
         <v>2.0</v>
       </c>
       <c r="BX29" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="BY29" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ29" t="n">
         <v>165.095</v>
@@ -8790,20 +8802,20 @@
       <c r="BK30" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>0.0</v>
+      <c r="BL30" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>281</v>
       </c>
       <c r="BP30" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BQ30" t="s">
         <v>86</v>
@@ -8827,10 +8839,10 @@
         <v>2.0</v>
       </c>
       <c r="BX30" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY30" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ30" t="n">
         <v>197.416571429</v>
@@ -9053,17 +9065,17 @@
       <c r="BK31" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>0.0</v>
+      <c r="BL31" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>281</v>
       </c>
       <c r="BP31" t="s">
         <v>173</v>
@@ -9090,10 +9102,10 @@
         <v>3.0</v>
       </c>
       <c r="BX31" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY31" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ31" t="n">
         <v>156.120428571</v>
@@ -9316,17 +9328,17 @@
       <c r="BK32" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>0.0</v>
+      <c r="BL32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>281</v>
       </c>
       <c r="BP32" t="s">
         <v>102</v>
@@ -9353,10 +9365,10 @@
         <v>1.0</v>
       </c>
       <c r="BX32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY32" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ32" t="n">
         <v>150.174285714</v>
@@ -9579,17 +9591,17 @@
       <c r="BK33" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>0.0</v>
+      <c r="BL33" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>281</v>
       </c>
       <c r="BP33" t="s">
         <v>108</v>
@@ -9616,10 +9628,10 @@
         <v>3.0</v>
       </c>
       <c r="BX33" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY33" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ33" t="n">
         <v>183.92</v>
@@ -9842,17 +9854,17 @@
       <c r="BK34" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>0.0</v>
+      <c r="BL34" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>281</v>
       </c>
       <c r="BP34" t="s">
         <v>93</v>
@@ -9879,10 +9891,10 @@
         <v>2.0</v>
       </c>
       <c r="BX34" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY34" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ34" t="n">
         <v>262.603571429</v>
@@ -10105,17 +10117,17 @@
       <c r="BK35" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>0.0</v>
+      <c r="BL35" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>281</v>
       </c>
       <c r="BP35" t="s">
         <v>108</v>
@@ -10142,10 +10154,10 @@
         <v>3.0</v>
       </c>
       <c r="BX35" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY35" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ35" t="n">
         <v>191.178285714</v>
@@ -10368,17 +10380,17 @@
       <c r="BK36" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>0.0</v>
+      <c r="BL36" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>281</v>
       </c>
       <c r="BP36" t="s">
         <v>102</v>
@@ -10405,10 +10417,10 @@
         <v>1.0</v>
       </c>
       <c r="BX36" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY36" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ36" t="n">
         <v>213.881</v>
@@ -10631,20 +10643,20 @@
       <c r="BK37" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>0.0</v>
+      <c r="BL37" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>281</v>
       </c>
       <c r="BP37" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BQ37" t="s">
         <v>86</v>
@@ -10668,10 +10680,10 @@
         <v>2.0</v>
       </c>
       <c r="BX37" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY37" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ37" t="n">
         <v>217.544857143</v>
@@ -10894,20 +10906,20 @@
       <c r="BK38" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>0.0</v>
+      <c r="BL38" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>281</v>
       </c>
       <c r="BP38" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BQ38" t="s">
         <v>86</v>
@@ -10931,10 +10943,10 @@
         <v>2.0</v>
       </c>
       <c r="BX38" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY38" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ38" t="n">
         <v>208.814</v>
@@ -11157,17 +11169,17 @@
       <c r="BK39" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>0.0</v>
+      <c r="BL39" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>281</v>
       </c>
       <c r="BP39" t="s">
         <v>108</v>
@@ -11194,10 +11206,10 @@
         <v>3.0</v>
       </c>
       <c r="BX39" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY39" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ39" t="n">
         <v>238.443142857</v>
@@ -11420,20 +11432,20 @@
       <c r="BK40" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>0.0</v>
+      <c r="BL40" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>281</v>
       </c>
       <c r="BP40" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="BQ40" t="s">
         <v>86</v>
@@ -11442,7 +11454,7 @@
         <v>1.0</v>
       </c>
       <c r="BS40" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BT40" t="n">
         <v>2.0</v>
@@ -11457,10 +11469,10 @@
         <v>2.0</v>
       </c>
       <c r="BX40" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="BY40" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ40" t="n">
         <v>212.427142857</v>
@@ -11468,8 +11480,8 @@
       <c r="CA40" t="n">
         <v>0.0294117647059</v>
       </c>
-      <c r="CB40" t="e">
-        <v>#N/A</v>
+      <c r="CB40" t="n">
+        <v>19.0</v>
       </c>
       <c r="CC40" t="n">
         <v>1.0</v>
@@ -11683,17 +11695,17 @@
       <c r="BK41" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>0.0</v>
+      <c r="BL41" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>281</v>
       </c>
       <c r="BP41" t="s">
         <v>104</v>
@@ -11720,10 +11732,10 @@
         <v>2.0</v>
       </c>
       <c r="BX41" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY41" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ41" t="n">
         <v>283.377571429</v>
@@ -11946,17 +11958,17 @@
       <c r="BK42" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO42" t="n">
-        <v>0.0</v>
+      <c r="BL42" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>281</v>
       </c>
       <c r="BP42" t="s">
         <v>102</v>
@@ -11983,10 +11995,10 @@
         <v>1.0</v>
       </c>
       <c r="BX42" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY42" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ42" t="n">
         <v>142.111</v>
@@ -12209,17 +12221,17 @@
       <c r="BK43" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO43" t="n">
-        <v>0.0</v>
+      <c r="BL43" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>281</v>
       </c>
       <c r="BP43" t="s">
         <v>108</v>
@@ -12246,10 +12258,10 @@
         <v>3.0</v>
       </c>
       <c r="BX43" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY43" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ43" t="n">
         <v>51.257</v>
@@ -12472,17 +12484,17 @@
       <c r="BK44" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>0.0</v>
+      <c r="BL44" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>281</v>
       </c>
       <c r="BP44" t="s">
         <v>102</v>
@@ -12509,10 +12521,10 @@
         <v>1.0</v>
       </c>
       <c r="BX44" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY44" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ44" t="n">
         <v>189.581571429</v>
@@ -12735,17 +12747,17 @@
       <c r="BK45" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>0.0</v>
+      <c r="BL45" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>281</v>
       </c>
       <c r="BP45" t="s">
         <v>102</v>
@@ -12772,10 +12784,10 @@
         <v>1.0</v>
       </c>
       <c r="BX45" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY45" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ45" t="n">
         <v>213.358</v>
@@ -12998,20 +13010,20 @@
       <c r="BK46" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>0.0</v>
+      <c r="BL46" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>281</v>
       </c>
       <c r="BP46" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="BQ46" t="s">
         <v>90</v>
@@ -13035,10 +13047,10 @@
         <v>3.0</v>
       </c>
       <c r="BX46" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY46" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ46" t="n">
         <v>224.812428571</v>
@@ -13261,17 +13273,17 @@
       <c r="BK47" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>0.0</v>
+      <c r="BL47" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>281</v>
       </c>
       <c r="BP47" t="s">
         <v>93</v>
@@ -13298,10 +13310,10 @@
         <v>2.0</v>
       </c>
       <c r="BX47" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY47" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ47" t="n">
         <v>248.693714286</v>
@@ -13524,17 +13536,17 @@
       <c r="BK48" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO48" t="n">
-        <v>0.0</v>
+      <c r="BL48" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>281</v>
       </c>
       <c r="BP48" t="s">
         <v>102</v>
@@ -13561,10 +13573,10 @@
         <v>1.0</v>
       </c>
       <c r="BX48" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY48" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ48" t="n">
         <v>182.237428571</v>
@@ -13787,17 +13799,17 @@
       <c r="BK49" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>0.0</v>
+      <c r="BL49" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>281</v>
       </c>
       <c r="BP49" t="s">
         <v>102</v>
@@ -13824,10 +13836,10 @@
         <v>1.0</v>
       </c>
       <c r="BX49" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY49" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ49" t="n">
         <v>202.670428571</v>
@@ -14050,17 +14062,17 @@
       <c r="BK50" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>0.0</v>
+      <c r="BL50" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO50" t="s">
+        <v>281</v>
       </c>
       <c r="BP50" t="s">
         <v>102</v>
@@ -14087,10 +14099,10 @@
         <v>1.0</v>
       </c>
       <c r="BX50" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY50" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ50" t="n">
         <v>212.324142857</v>
@@ -14313,20 +14325,20 @@
       <c r="BK51" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>0.0</v>
+      <c r="BL51" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>281</v>
       </c>
       <c r="BP51" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BQ51" t="s">
         <v>87</v>
@@ -14350,10 +14362,10 @@
         <v>1.0</v>
       </c>
       <c r="BX51" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY51" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ51" t="n">
         <v>355.126285714</v>
@@ -14576,20 +14588,20 @@
       <c r="BK52" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO52" t="n">
-        <v>0.0</v>
+      <c r="BL52" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>281</v>
       </c>
       <c r="BP52" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BQ52" t="s">
         <v>87</v>
@@ -14613,10 +14625,10 @@
         <v>1.0</v>
       </c>
       <c r="BX52" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY52" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ52" t="n">
         <v>116.681</v>
@@ -14839,17 +14851,17 @@
       <c r="BK53" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>0.0</v>
+      <c r="BL53" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>281</v>
       </c>
       <c r="BP53" t="s">
         <v>102</v>
@@ -14876,10 +14888,10 @@
         <v>1.0</v>
       </c>
       <c r="BX53" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY53" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ53" t="n">
         <v>119.442</v>
@@ -15102,17 +15114,17 @@
       <c r="BK54" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>0.0</v>
+      <c r="BL54" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO54" t="s">
+        <v>281</v>
       </c>
       <c r="BP54" t="s">
         <v>102</v>
@@ -15139,10 +15151,10 @@
         <v>1.0</v>
       </c>
       <c r="BX54" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY54" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ54" t="n">
         <v>100.645714286</v>
@@ -15365,20 +15377,20 @@
       <c r="BK55" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO55" t="n">
-        <v>0.0</v>
+      <c r="BL55" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>281</v>
       </c>
       <c r="BP55" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BQ55" t="s">
         <v>89</v>
@@ -15402,10 +15414,10 @@
         <v>2.0</v>
       </c>
       <c r="BX55" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY55" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ55" t="n">
         <v>138.588857143</v>
@@ -15628,20 +15640,20 @@
       <c r="BK56" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN56" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO56" t="n">
-        <v>0.0</v>
+      <c r="BL56" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM56" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN56" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>281</v>
       </c>
       <c r="BP56" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BQ56" t="s">
         <v>86</v>
@@ -15665,10 +15677,10 @@
         <v>2.0</v>
       </c>
       <c r="BX56" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY56" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ56" t="n">
         <v>135.159285714</v>
@@ -15891,17 +15903,17 @@
       <c r="BK57" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO57" t="n">
-        <v>0.0</v>
+      <c r="BL57" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO57" t="s">
+        <v>281</v>
       </c>
       <c r="BP57" t="s">
         <v>102</v>
@@ -15928,10 +15940,10 @@
         <v>1.0</v>
       </c>
       <c r="BX57" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY57" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ57" t="n">
         <v>156.927</v>
@@ -16154,17 +16166,17 @@
       <c r="BK58" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>0.0</v>
+      <c r="BL58" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN58" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO58" t="s">
+        <v>281</v>
       </c>
       <c r="BP58" t="s">
         <v>104</v>
@@ -16191,10 +16203,10 @@
         <v>2.0</v>
       </c>
       <c r="BX58" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY58" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ58" t="n">
         <v>156.979285714</v>
@@ -16417,17 +16429,17 @@
       <c r="BK59" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>0.0</v>
+      <c r="BL59" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN59" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO59" t="s">
+        <v>281</v>
       </c>
       <c r="BP59" t="s">
         <v>108</v>
@@ -16454,10 +16466,10 @@
         <v>3.0</v>
       </c>
       <c r="BX59" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY59" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ59" t="n">
         <v>309.852857143</v>
@@ -16680,17 +16692,17 @@
       <c r="BK60" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>0.0</v>
+      <c r="BL60" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO60" t="s">
+        <v>281</v>
       </c>
       <c r="BP60" t="s">
         <v>93</v>
@@ -16717,10 +16729,10 @@
         <v>2.0</v>
       </c>
       <c r="BX60" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY60" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ60" t="n">
         <v>146.223857143</v>
@@ -16943,20 +16955,20 @@
       <c r="BK61" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>0.0</v>
+      <c r="BL61" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN61" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>281</v>
       </c>
       <c r="BP61" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BQ61" t="s">
         <v>86</v>
@@ -16980,10 +16992,10 @@
         <v>2.0</v>
       </c>
       <c r="BX61" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY61" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ61" t="n">
         <v>92.8812857143</v>
@@ -17206,17 +17218,17 @@
       <c r="BK62" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>1.0</v>
+      <c r="BL62" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>284</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>285</v>
       </c>
       <c r="BP62" t="s">
         <v>95</v>
@@ -17243,10 +17255,10 @@
         <v>2.0</v>
       </c>
       <c r="BX62" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY62" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ62" t="n">
         <v>122.737285714</v>
@@ -17469,17 +17481,17 @@
       <c r="BK63" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>0.0</v>
+      <c r="BL63" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>281</v>
       </c>
       <c r="BP63" t="s">
         <v>102</v>
@@ -17506,10 +17518,10 @@
         <v>1.0</v>
       </c>
       <c r="BX63" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY63" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ63" t="n">
         <v>155.639428571</v>
@@ -17732,20 +17744,20 @@
       <c r="BK64" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>0.0</v>
+      <c r="BL64" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN64" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO64" t="s">
+        <v>281</v>
       </c>
       <c r="BP64" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="BQ64" t="s">
         <v>87</v>
@@ -17754,7 +17766,7 @@
         <v>1.0</v>
       </c>
       <c r="BS64" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="BT64" t="n">
         <v>2.0</v>
@@ -17769,10 +17781,10 @@
         <v>1.0</v>
       </c>
       <c r="BX64" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="BY64" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ64" t="n">
         <v>309.949857143</v>
@@ -17780,8 +17792,8 @@
       <c r="CA64" t="n">
         <v>0.0264317180617</v>
       </c>
-      <c r="CB64" t="e">
-        <v>#N/A</v>
+      <c r="CB64" t="n">
+        <v>17.0</v>
       </c>
       <c r="CC64" t="n">
         <v>1.0</v>
@@ -17995,17 +18007,17 @@
       <c r="BK65" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>0.0</v>
+      <c r="BL65" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN65" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>281</v>
       </c>
       <c r="BP65" t="s">
         <v>102</v>
@@ -18032,10 +18044,10 @@
         <v>1.0</v>
       </c>
       <c r="BX65" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY65" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ65" t="n">
         <v>129.918857143</v>
@@ -18258,17 +18270,17 @@
       <c r="BK66" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>0.0</v>
+      <c r="BL66" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN66" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO66" t="s">
+        <v>281</v>
       </c>
       <c r="BP66" t="s">
         <v>102</v>
@@ -18295,10 +18307,10 @@
         <v>1.0</v>
       </c>
       <c r="BX66" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY66" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ66" t="n">
         <v>141.780857143</v>
@@ -18521,17 +18533,17 @@
       <c r="BK67" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>0.0</v>
+      <c r="BL67" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN67" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO67" t="s">
+        <v>281</v>
       </c>
       <c r="BP67" t="s">
         <v>86</v>
@@ -18558,10 +18570,10 @@
         <v>2.0</v>
       </c>
       <c r="BX67" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY67" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ67" t="n">
         <v>127.883285714</v>
@@ -18784,17 +18796,17 @@
       <c r="BK68" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>0.0</v>
+      <c r="BL68" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN68" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO68" t="s">
+        <v>281</v>
       </c>
       <c r="BP68" t="s">
         <v>113</v>
@@ -18821,10 +18833,10 @@
         <v>2.0</v>
       </c>
       <c r="BX68" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY68" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ68" t="n">
         <v>137.645714286</v>
@@ -19047,23 +19059,23 @@
       <c r="BK69" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>0.0</v>
+      <c r="BL69" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN69" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO69" t="s">
+        <v>281</v>
       </c>
       <c r="BP69" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="BQ69" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="BR69" t="n">
         <v>1.0</v>
@@ -19084,10 +19096,10 @@
         <v>1.0</v>
       </c>
       <c r="BX69" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY69" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ69" t="n">
         <v>119.429857143</v>
@@ -19310,17 +19322,17 @@
       <c r="BK70" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>0.0</v>
+      <c r="BL70" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>281</v>
       </c>
       <c r="BP70" t="s">
         <v>173</v>
@@ -19347,10 +19359,10 @@
         <v>3.0</v>
       </c>
       <c r="BX70" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY70" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ70" t="n">
         <v>134.023285714</v>
@@ -19573,17 +19585,17 @@
       <c r="BK71" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>0.0</v>
+      <c r="BL71" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>281</v>
       </c>
       <c r="BP71" t="s">
         <v>102</v>
@@ -19610,10 +19622,10 @@
         <v>1.0</v>
       </c>
       <c r="BX71" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY71" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ71" t="n">
         <v>151.431428571</v>
@@ -19836,17 +19848,17 @@
       <c r="BK72" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>0.0</v>
+      <c r="BL72" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN72" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO72" t="s">
+        <v>281</v>
       </c>
       <c r="BP72" t="s">
         <v>104</v>
@@ -19873,10 +19885,10 @@
         <v>2.0</v>
       </c>
       <c r="BX72" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY72" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ72" t="n">
         <v>146.560571429</v>
@@ -20099,17 +20111,17 @@
       <c r="BK73" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>0.0</v>
+      <c r="BL73" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN73" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO73" t="s">
+        <v>281</v>
       </c>
       <c r="BP73" t="s">
         <v>108</v>
@@ -20136,10 +20148,10 @@
         <v>3.0</v>
       </c>
       <c r="BX73" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY73" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ73" t="n">
         <v>191.289</v>
@@ -20362,17 +20374,17 @@
       <c r="BK74" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>0.0</v>
+      <c r="BL74" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN74" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO74" t="s">
+        <v>281</v>
       </c>
       <c r="BP74" t="s">
         <v>102</v>
@@ -20399,10 +20411,10 @@
         <v>1.0</v>
       </c>
       <c r="BX74" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY74" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ74" t="n">
         <v>303.276285714</v>
@@ -20625,17 +20637,17 @@
       <c r="BK75" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>0.0</v>
+      <c r="BL75" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN75" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO75" t="s">
+        <v>281</v>
       </c>
       <c r="BP75" t="s">
         <v>116</v>
@@ -20662,10 +20674,10 @@
         <v>1.0</v>
       </c>
       <c r="BX75" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY75" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ75" t="n">
         <v>96.4717142857</v>
@@ -20888,17 +20900,17 @@
       <c r="BK76" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>0.0</v>
+      <c r="BL76" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN76" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO76" t="s">
+        <v>281</v>
       </c>
       <c r="BP76" t="s">
         <v>116</v>
@@ -20925,10 +20937,10 @@
         <v>1.0</v>
       </c>
       <c r="BX76" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY76" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ76" t="n">
         <v>197.124142857</v>
@@ -21151,17 +21163,17 @@
       <c r="BK77" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>0.0</v>
+      <c r="BL77" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM77" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN77" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO77" t="s">
+        <v>281</v>
       </c>
       <c r="BP77" t="s">
         <v>108</v>
@@ -21188,10 +21200,10 @@
         <v>3.0</v>
       </c>
       <c r="BX77" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY77" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ77" t="n">
         <v>180.485857143</v>
@@ -21414,17 +21426,17 @@
       <c r="BK78" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO78" t="n">
-        <v>0.0</v>
+      <c r="BL78" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM78" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN78" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO78" t="s">
+        <v>281</v>
       </c>
       <c r="BP78" t="s">
         <v>108</v>
@@ -21451,10 +21463,10 @@
         <v>3.0</v>
       </c>
       <c r="BX78" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY78" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ78" t="n">
         <v>190.651142857</v>
@@ -21677,17 +21689,17 @@
       <c r="BK79" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>0.0</v>
+      <c r="BL79" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM79" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN79" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO79" t="s">
+        <v>281</v>
       </c>
       <c r="BP79" t="s">
         <v>93</v>
@@ -21714,10 +21726,10 @@
         <v>2.0</v>
       </c>
       <c r="BX79" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY79" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ79" t="n">
         <v>212.514571429</v>
@@ -21940,17 +21952,17 @@
       <c r="BK80" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO80" t="n">
-        <v>0.0</v>
+      <c r="BL80" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM80" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN80" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO80" t="s">
+        <v>281</v>
       </c>
       <c r="BP80" t="s">
         <v>102</v>
@@ -21977,10 +21989,10 @@
         <v>1.0</v>
       </c>
       <c r="BX80" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY80" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ80" t="n">
         <v>174.651142857</v>
@@ -22203,17 +22215,17 @@
       <c r="BK81" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN81" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>0.0</v>
+      <c r="BL81" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM81" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN81" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO81" t="s">
+        <v>281</v>
       </c>
       <c r="BP81" t="s">
         <v>102</v>
@@ -22240,10 +22252,10 @@
         <v>1.0</v>
       </c>
       <c r="BX81" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY81" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ81" t="n">
         <v>239.327142857</v>
@@ -22466,17 +22478,17 @@
       <c r="BK82" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO82" t="n">
-        <v>0.0</v>
+      <c r="BL82" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM82" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN82" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO82" t="s">
+        <v>281</v>
       </c>
       <c r="BP82" t="s">
         <v>102</v>
@@ -22503,10 +22515,10 @@
         <v>1.0</v>
       </c>
       <c r="BX82" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY82" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ82" t="n">
         <v>201.878428571</v>
@@ -22729,17 +22741,17 @@
       <c r="BK83" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO83" t="n">
-        <v>0.0</v>
+      <c r="BL83" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM83" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN83" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO83" t="s">
+        <v>281</v>
       </c>
       <c r="BP83" t="s">
         <v>102</v>
@@ -22766,10 +22778,10 @@
         <v>1.0</v>
       </c>
       <c r="BX83" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY83" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ83" t="n">
         <v>211.668142857</v>
@@ -22992,17 +23004,17 @@
       <c r="BK84" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO84" t="n">
-        <v>0.0</v>
+      <c r="BL84" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM84" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN84" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO84" t="s">
+        <v>281</v>
       </c>
       <c r="BP84" t="s">
         <v>102</v>
@@ -23029,10 +23041,10 @@
         <v>1.0</v>
       </c>
       <c r="BX84" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY84" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ84" t="n">
         <v>192.873714286</v>
@@ -23255,17 +23267,17 @@
       <c r="BK85" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO85" t="n">
-        <v>0.0</v>
+      <c r="BL85" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM85" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN85" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO85" t="s">
+        <v>281</v>
       </c>
       <c r="BP85" t="s">
         <v>102</v>
@@ -23292,10 +23304,10 @@
         <v>1.0</v>
       </c>
       <c r="BX85" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY85" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ85" t="n">
         <v>153.484142857</v>
@@ -23518,17 +23530,17 @@
       <c r="BK86" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO86" t="n">
-        <v>0.0</v>
+      <c r="BL86" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM86" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN86" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO86" t="s">
+        <v>281</v>
       </c>
       <c r="BP86" t="s">
         <v>102</v>
@@ -23555,10 +23567,10 @@
         <v>1.0</v>
       </c>
       <c r="BX86" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY86" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ86" t="n">
         <v>27.2994285714</v>
@@ -23781,17 +23793,17 @@
       <c r="BK87" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO87" t="n">
-        <v>0.0</v>
+      <c r="BL87" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM87" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN87" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO87" t="s">
+        <v>281</v>
       </c>
       <c r="BP87" t="s">
         <v>108</v>
@@ -23818,10 +23830,10 @@
         <v>3.0</v>
       </c>
       <c r="BX87" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY87" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ87" t="n">
         <v>153.791142857</v>
@@ -24044,17 +24056,17 @@
       <c r="BK88" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO88" t="n">
-        <v>0.0</v>
+      <c r="BL88" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM88" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN88" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO88" t="s">
+        <v>281</v>
       </c>
       <c r="BP88" t="s">
         <v>108</v>
@@ -24081,10 +24093,10 @@
         <v>3.0</v>
       </c>
       <c r="BX88" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY88" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ88" t="n">
         <v>191.411857143</v>
@@ -24307,17 +24319,17 @@
       <c r="BK89" t="n">
         <v>0.0</v>
       </c>
-      <c r="BL89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO89" t="n">
-        <v>0.0</v>
+      <c r="BL89" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM89" t="s">
+        <v>281</v>
+      </c>
+      <c r="BN89" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO89" t="s">
+        <v>281</v>
       </c>
       <c r="BP89" t="s">
         <v>113</v>
@@ -24344,10 +24356,10 @@
         <v>2.0</v>
       </c>
       <c r="BX89" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="BY89" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BZ89" t="n">
         <v>183.633285714</v>

--- a/2.Statistical_Analysis/Clinical_Genomic_data.xlsx
+++ b/2.Statistical_Analysis/Clinical_Genomic_data.xlsx
@@ -2099,7 +2099,7 @@
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
@@ -2362,10 +2362,10 @@
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W6" t="n">
         <v>0.0</v>
@@ -3413,11 +3413,11 @@
       <c r="T10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="e">
-        <v>#N/A</v>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
         <v>1.0</v>
@@ -3677,10 +3677,10 @@
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W11" t="n">
         <v>0.0</v>
@@ -3940,7 +3940,7 @@
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
@@ -4203,10 +4203,10 @@
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
@@ -4466,10 +4466,10 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
         <v>1.0</v>
@@ -5255,10 +5255,10 @@
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
@@ -5518,10 +5518,10 @@
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W18" t="n">
         <v>0.0</v>
@@ -5784,7 +5784,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19" t="n">
         <v>0.0</v>
@@ -6307,7 +6307,7 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
@@ -6833,10 +6833,10 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
@@ -7099,7 +7099,7 @@
         <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
@@ -7625,7 +7625,7 @@
         <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W26" t="n">
         <v>0.0</v>
@@ -7885,10 +7885,10 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
@@ -8151,7 +8151,7 @@
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W28" t="n">
         <v>0.0</v>
@@ -8677,7 +8677,7 @@
         <v>0.0</v>
       </c>
       <c r="V30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W30" t="n">
         <v>0.0</v>
@@ -8940,7 +8940,7 @@
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
         <v>1.0</v>
@@ -9200,7 +9200,7 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V32" t="n">
         <v>0.0</v>
@@ -9463,10 +9463,10 @@
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W33" t="n">
         <v>0.0</v>
@@ -9992,7 +9992,7 @@
         <v>0.0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W35" t="n">
         <v>0.0</v>
@@ -10255,7 +10255,7 @@
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W36" t="n">
         <v>0.0</v>
@@ -10515,10 +10515,10 @@
         <v>0.0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W37" t="n">
         <v>0.0</v>
@@ -10778,7 +10778,7 @@
         <v>0.0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V38" t="n">
         <v>0.0</v>
@@ -11044,7 +11044,7 @@
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W39" t="n">
         <v>0.0</v>
@@ -11304,10 +11304,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W40" t="n">
         <v>0.0</v>
@@ -11833,7 +11833,7 @@
         <v>0.0</v>
       </c>
       <c r="V42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W42" t="n">
         <v>0.0</v>
@@ -12622,7 +12622,7 @@
         <v>0.0</v>
       </c>
       <c r="V45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W45" t="n">
         <v>0.0</v>
@@ -12882,10 +12882,10 @@
         <v>0.0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W46" t="n">
         <v>0.0</v>
@@ -13408,10 +13408,10 @@
         <v>0.0</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W48" t="n">
         <v>0.0</v>
@@ -13674,7 +13674,7 @@
         <v>0.0</v>
       </c>
       <c r="V49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W49" t="n">
         <v>0.0</v>
@@ -13934,7 +13934,7 @@
         <v>0.0</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V50" t="n">
         <v>0.0</v>
@@ -14460,10 +14460,10 @@
         <v>0.0</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W52" t="n">
         <v>0.0</v>
@@ -14726,7 +14726,7 @@
         <v>0.0</v>
       </c>
       <c r="V53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W53" t="n">
         <v>0.0</v>
@@ -14986,10 +14986,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W54" t="n">
         <v>0.0</v>
@@ -15425,8 +15425,8 @@
       <c r="CA55" t="n">
         <v>0.0490196078431</v>
       </c>
-      <c r="CB55" t="e">
-        <v>#N/A</v>
+      <c r="CB55" t="n">
+        <v>12.0</v>
       </c>
       <c r="CC55" t="n">
         <v>1.0</v>
@@ -15515,7 +15515,7 @@
         <v>0.0</v>
       </c>
       <c r="V56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W56" t="n">
         <v>0.0</v>
@@ -15778,7 +15778,7 @@
         <v>0.0</v>
       </c>
       <c r="V57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W57" t="n">
         <v>0.0</v>
@@ -16304,7 +16304,7 @@
         <v>0.0</v>
       </c>
       <c r="V59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W59" t="n">
         <v>0.0</v>
@@ -16830,7 +16830,7 @@
         <v>0.0</v>
       </c>
       <c r="V61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W61" t="n">
         <v>0.0</v>
@@ -17090,7 +17090,7 @@
         <v>0.0</v>
       </c>
       <c r="U62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V62" t="n">
         <v>0.0</v>
@@ -17882,7 +17882,7 @@
         <v>0.0</v>
       </c>
       <c r="V65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W65" t="n">
         <v>0.0</v>
@@ -18145,7 +18145,7 @@
         <v>0.0</v>
       </c>
       <c r="V66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W66" t="n">
         <v>0.0</v>
@@ -18405,10 +18405,10 @@
         <v>0.0</v>
       </c>
       <c r="U67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W67" t="n">
         <v>0.0</v>
@@ -18931,7 +18931,7 @@
         <v>0.0</v>
       </c>
       <c r="U69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V69" t="n">
         <v>0.0</v>
@@ -19194,10 +19194,10 @@
         <v>0.0</v>
       </c>
       <c r="U70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W70" t="n">
         <v>0.0</v>
@@ -19986,7 +19986,7 @@
         <v>0.0</v>
       </c>
       <c r="V73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W73" t="n">
         <v>0.0</v>
@@ -20246,10 +20246,10 @@
         <v>0.0</v>
       </c>
       <c r="U74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W74" t="n">
         <v>0.0</v>
@@ -20509,10 +20509,10 @@
         <v>0.0</v>
       </c>
       <c r="U75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W75" t="n">
         <v>0.0</v>
@@ -21038,7 +21038,7 @@
         <v>0.0</v>
       </c>
       <c r="V77" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W77" t="n">
         <v>1.0</v>
@@ -21298,10 +21298,10 @@
         <v>0.0</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W78" t="n">
         <v>0.0</v>
@@ -21561,7 +21561,7 @@
         <v>0.0</v>
       </c>
       <c r="U79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V79" t="n">
         <v>0.0</v>
@@ -21827,7 +21827,7 @@
         <v>0.0</v>
       </c>
       <c r="V80" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W80" t="n">
         <v>0.0</v>
@@ -22616,7 +22616,7 @@
         <v>0.0</v>
       </c>
       <c r="V83" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W83" t="n">
         <v>1.0</v>
@@ -23142,7 +23142,7 @@
         <v>0.0</v>
       </c>
       <c r="V85" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W85" t="n">
         <v>1.0</v>
@@ -23405,7 +23405,7 @@
         <v>0.0</v>
       </c>
       <c r="V86" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W86" t="n">
         <v>1.0</v>
@@ -23668,7 +23668,7 @@
         <v>0.0</v>
       </c>
       <c r="V87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W87" t="n">
         <v>1.0</v>
